--- a/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006992</t>
+          <t>004997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉合锦创优势精选混合</t>
+          <t>广发高端制造股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.33</t>
+          <t>151.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.8719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009968</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合A</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>20.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009969</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰内需成长混合C</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1329</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010023</t>
+          <t>270028</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发制造业精选混合C</t>
+          <t>广发制造业精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>13.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>92.60</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.03</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9427</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>001476</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>中银智能制造股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>41.21</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001476</t>
+          <t>002124</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中银智能制造股票</t>
+          <t>广发新兴产业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.06</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.48</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>270028</t>
+          <t>010433</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发制造业精选混合A</t>
+          <t>广发新兴产业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7805</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>310368</t>
+          <t>009968</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信竞争优势混合</t>
+          <t>金鹰内需成长混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.84</t>
+          <t>6.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3755</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
     </row>
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>95.86</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>210005</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰主题优势混合</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>41.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000826</t>
+          <t>210005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发中证百度百发策略100指数A</t>
+          <t>金鹰主题优势混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2375</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000827</t>
+          <t>006243</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发中证百度百发策略100指数E</t>
+          <t>中银双息回报混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>163818</t>
+          <t>000826</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中银中小盘成长混合</t>
+          <t>广发中证百度百发策略100指数A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.82</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001298</t>
+          <t>000827</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>金鹰民族新兴灵活配置混合</t>
+          <t>广发中证百度百发策略100指数E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001709</t>
+          <t>002064</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华富物联世界灵活配置混合</t>
+          <t>华富产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>88.24</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>001298</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>金鹰民族新兴灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84.74</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>4</v>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002064</t>
+          <t>009969</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华富产业升级灵活配置混合</t>
+          <t>金鹰内需成长混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>86.64</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -996,25 +1186,35 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002124</t>
+          <t>163818</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合</t>
+          <t>中银中小盘成长混合</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>005009</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>申万菱信行业轮动股票</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>005009</t>
+          <t>005090</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>申万菱信行业轮动股票</t>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003717</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合A</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006243</t>
+          <t>005091</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中银双息回报混合</t>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>77.08</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1136,25 +1376,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>010433</t>
+          <t>010023</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合C</t>
+          <t>广发制造业精选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1164,25 +1414,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010484</t>
+          <t>003717</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中银量化精选灵活配置混合C</t>
+          <t>中银量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>90.96</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005090</t>
+          <t>001709</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+          <t>华富物联世界灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005091</t>
+          <t>006992</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+          <t>嘉合锦创优势精选混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,34 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>010484</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>中银量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.53</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,15 +1590,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>163807</t>
+          <t>501078</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银优选混合</t>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.19</t>
+          <t>19.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4760</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000496</t>
+          <t>270028</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长安产业精选灵活配置混合A</t>
+          <t>广发制造业精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6758</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>002071</t>
+          <t>001476</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长安产业精选灵活配置混合C</t>
+          <t>中银智能制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83.55</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1406,25 +1734,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270028</t>
+          <t>002124</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发制造业精选混合A</t>
+          <t>广发新兴产业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010023</t>
+          <t>162720</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发制造业精选混合C</t>
+          <t>广发创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>8.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>77.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>501078</t>
+          <t>163807</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+          <t>中银优选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>8.38</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001476</t>
+          <t>005009</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中银智能制造股票</t>
+          <t>申万菱信行业轮动股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>85.10</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002124</t>
+          <t>008050</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合</t>
+          <t>同泰慧择混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005009</t>
+          <t>010023</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>申万菱信行业轮动股票</t>
+          <t>广发制造业精选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1574,25 +1962,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008050</t>
+          <t>000496</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>同泰慧择混合A</t>
+          <t>长安产业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1602,25 +2000,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008051</t>
+          <t>002071</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>同泰慧择混合C</t>
+          <t>长安产业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>95.06</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>162720</t>
+          <t>008051</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发创业板两年定期开放混合</t>
+          <t>同泰慧择混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>77.19</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2073,4 +2074,2492 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9171</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8807</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2608</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1515</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9240</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7344</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163801</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银中国混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6834</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6688</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6346</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4326</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3678</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3632</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3402</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3007</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2894</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163805</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银动态策略混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>163809</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银蓝筹精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1462</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000431</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华品牌传承混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001524</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010060</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000496</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002213</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海顺鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002071</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长安产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004557</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>北信瑞丰鼎丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010061</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4562,4 +4563,2568 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8556</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3234</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9492</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9260</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7574</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7265</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6740</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4924</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4681</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4574</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3889</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3188</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3020</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006265</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>红土创新新科技股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001753</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>红土创新新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1232</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005296</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南华丰淳混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005297</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南华丰淳混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>163818</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中银中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.02</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005437</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005438</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达易百智能量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011442</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011443</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>创金合信鑫瑞混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7127,4 +7128,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16.86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7136,7 +7137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7147,17 +7148,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7167,14 +7188,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>66</v>
-      </c>
-      <c r="D2" t="n">
-        <v>17.02</v>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4926</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7183,14 +7226,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>64</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.34</v>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7760</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -7199,14 +7264,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.97</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -7215,13 +7302,2089 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1078</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7495</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7361</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7254</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>610004</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信达澳银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4133</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3719</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2595</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002064</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富产业升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2154</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012426</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1361</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012445</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富新能源股票型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011801</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>580007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东吴安享量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006181</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004135</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信量化成长混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001709</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华富物联世界灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006182</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>格林伯锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>012427</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方价值臻选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>75.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>61.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>47.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011802</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中银证券盈瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>66</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>64</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>16.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9283,7 +9284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9294,17 +9295,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9314,14 +9335,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>55</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.42</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>148.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.3265</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -9330,14 +9373,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>66</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.02</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5969</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -9346,14 +9411,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.34</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2827</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -9362,14 +9449,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.97</v>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1820</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -9378,13 +9487,3281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0391</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>62.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9459</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4222</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1891</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0977</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0437</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>29.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8413</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8413</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8288</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7468</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6976</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6559</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5343</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5116</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4684</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.72</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>410007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华富价值增长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3776</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3181</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3011</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2999</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2835</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2472</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1400</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>39.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0709</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000030</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城核心优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>970048</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东海证券海睿致远灵活配置混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>161727</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商增荣灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>62.23</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>003059</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>46.07</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008041</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信先利半年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>49.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>66</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>16.86</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300763-锦浪科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12644,7 +12645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12655,17 +12656,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12675,14 +12696,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49.71</v>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>137.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.8341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -12691,14 +12734,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>55</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.42</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.3188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -12707,14 +12772,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.02</v>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.7799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -12723,14 +12810,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>64</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.34</v>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1225</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -12739,14 +12848,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.97</v>
+          <t>011479</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发诚享混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9651</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -12755,13 +12886,6337 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5854</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1279</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8141</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>29.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6721</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501078</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4127</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3667</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3139</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2651</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>163803</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银持续增长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2462</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001000</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧明睿新起点混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>31.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2137</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1291</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000126</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商安润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0756</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0645</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0195</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9608</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9495</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8652</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8223</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8087</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002124</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7502</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7148</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000190</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5928</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5831</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001471</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5464</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>410003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华富成长趋势混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010147</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博道嘉兴一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008208</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>博道嘉泰回报混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5063</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5035</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013851</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4688</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010330</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4336</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4252</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010892</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008467</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012631</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中银优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3611</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3388</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014024</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3293</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001809</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3150</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011975</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>54.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011480</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发诚享混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3006</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2914</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>050010</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时特许价值混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2688</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161601</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.68</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2589</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000550</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>广发新动力混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001677</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008793</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博道嘉元混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013852</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信建投低碳成长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>53.76</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1942</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013816</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000572</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1766</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009398</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华富成长企业精选股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010335</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012181</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中银智能制造股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>85.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008445</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>融通产业趋势先锋股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1418</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014191</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010282</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005894</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏优势精选股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1208</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1203</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004636</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中信建投智信物联网灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>77.22</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>014834</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006243</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中银双息回报混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009640</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>010433</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发新兴产业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0925</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014833</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013817</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇添富中证光伏产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0733</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>014478</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>014192</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010283</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中信建投智享生活混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007261</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>融通消费升级混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>003152</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>470021</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010925</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商企业优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>519127</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014902</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长城新能源股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002125</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>广发新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.15</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008468</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博道嘉瑞混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005728</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>002418</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇添富优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009641</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中银证券优选行业龙头混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014903</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>长城新能源股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008794</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>博道嘉元混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>74.17</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010124</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>519177</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>浦银安盛盛世精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010893</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银证券精选行业股票C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>011462</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>东吴兴享成长混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010812</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>中银战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010167</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中银多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>007387</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>融通通慧混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009273</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>融通中国风1号灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>010125</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>兴银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>012236</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中银持续增长混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>014479</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中加低碳经济六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>014025</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华富卓越成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>002612</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>融通通慧混合A/B</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>24.60</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>970050</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东海海睿锐意3个月定开灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>79.58</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>519175</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>960011</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中银持续增长混合H</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>008162</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浦银安盛经济带崛起灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>003153</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华富天鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>010926</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>兴银科技增长1个月滚动持有期混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>014948</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>融通新能源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>012799</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>华宝绿色主题混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>81.98</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011976</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>广发均衡回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>54.29</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010172</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>中银新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>014937</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>014454</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中银双息回报混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>168</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>49.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>16.86</v>
       </c>
     </row>
